--- a/benchmarks/nifty50Benchmark.xlsx
+++ b/benchmarks/nifty50Benchmark.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qkrishi\pilot_PO\Streamlit\benchmarks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6EF07-3E36-44F4-A333-B29B33B189C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nifty50Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Company name</t>
   </si>
@@ -58,343 +78,369 @@
     <t>indusind bank</t>
   </si>
   <si>
+    <t>INDUSINDBK.NS</t>
+  </si>
+  <si>
+    <t>Large Cap</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
     <t>hdfc life insurance company</t>
   </si>
   <si>
+    <t>HDFCLIFE.NS</t>
+  </si>
+  <si>
+    <t>NBFC</t>
+  </si>
+  <si>
     <t>bajaj finance</t>
   </si>
   <si>
+    <t>BAJFINANCE.NS</t>
+  </si>
+  <si>
     <t>power grid corporation of india</t>
   </si>
   <si>
+    <t>POWERGRID.NS</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>eicher motors</t>
   </si>
   <si>
+    <t>EICHERMOT.NS</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Discretionary</t>
+  </si>
+  <si>
     <t>axis bank</t>
   </si>
   <si>
+    <t>AXISBANK.NS</t>
+  </si>
+  <si>
     <t>bharat electronics</t>
   </si>
   <si>
+    <t>BEL.NS</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>mahindra &amp; mahindra</t>
   </si>
   <si>
+    <t>M&amp;M.NS</t>
+  </si>
+  <si>
+    <t>Auto &amp; Anc</t>
+  </si>
+  <si>
     <t>icici bank</t>
   </si>
   <si>
+    <t>ICICIBANK.NS</t>
+  </si>
+  <si>
     <t>cipla</t>
   </si>
   <si>
+    <t>CIPLA.NS</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>maruti suzuki india</t>
   </si>
   <si>
+    <t>MARUTI.NS</t>
+  </si>
+  <si>
     <t>coal india</t>
   </si>
   <si>
+    <t>COALINDIA.NS</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Metals &amp; min</t>
+  </si>
+  <si>
     <t>itc</t>
   </si>
   <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
     <t>trent</t>
   </si>
   <si>
+    <t>TRENT.NS</t>
+  </si>
+  <si>
     <t>apollo hospitals enterprise</t>
   </si>
   <si>
+    <t>APOLLOHOSP.NS</t>
+  </si>
+  <si>
     <t>state bank of india</t>
   </si>
   <si>
+    <t>SBIN.NS</t>
+  </si>
+  <si>
     <t>britannia industries</t>
   </si>
   <si>
+    <t>BRITANNIA.NS</t>
+  </si>
+  <si>
     <t>sun pharmaceutical industries</t>
   </si>
   <si>
+    <t>SUNPHARMA.NS</t>
+  </si>
+  <si>
     <t>asian paints</t>
   </si>
   <si>
+    <t>ASIANPAINT.NS</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>larsen &amp; toubro</t>
   </si>
   <si>
+    <t>LT.NS</t>
+  </si>
+  <si>
     <t>wipro</t>
   </si>
   <si>
+    <t>WIPRO.NS</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>bajaj auto</t>
   </si>
   <si>
+    <t>BAJAJ-AUTO.NS</t>
+  </si>
+  <si>
     <t>grasim industries</t>
   </si>
   <si>
+    <t>GRASIM.NS</t>
+  </si>
+  <si>
+    <t>Build Mate</t>
+  </si>
+  <si>
     <t>hdfc bank</t>
   </si>
   <si>
+    <t>HDFCBANK.NS</t>
+  </si>
+  <si>
     <t>reliance industries</t>
   </si>
   <si>
+    <t>RELIANCE.NS</t>
+  </si>
+  <si>
+    <t>Oil &amp; gas</t>
+  </si>
+  <si>
     <t>bajaj finserv</t>
   </si>
   <si>
+    <t>BAJAJFINSV.NS</t>
+  </si>
+  <si>
     <t>sbi life insurance company</t>
   </si>
   <si>
+    <t>SBILIFE.NS</t>
+  </si>
+  <si>
     <t>adani enterprises</t>
   </si>
   <si>
+    <t>ADANIENT.NS</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>nestle india</t>
   </si>
   <si>
+    <t>NESTLEIND.NS</t>
+  </si>
+  <si>
     <t>tata motors</t>
   </si>
   <si>
+    <t>TATAMOTORS.NS</t>
+  </si>
+  <si>
     <t>hcl technologies</t>
   </si>
   <si>
+    <t>HCLTECH.NS</t>
+  </si>
+  <si>
     <t>tata steel</t>
   </si>
   <si>
+    <t>TATASTEEL.NS</t>
+  </si>
+  <si>
     <t>shriram finance</t>
   </si>
   <si>
+    <t>SHRIRAMFIN.NS</t>
+  </si>
+  <si>
     <t>hero motocorp</t>
   </si>
   <si>
+    <t>HEROMOTOCO.NS</t>
+  </si>
+  <si>
     <t>jsw steel</t>
   </si>
   <si>
+    <t>JSWSTEEL.NS</t>
+  </si>
+  <si>
     <t>oil &amp; natural gas corporation</t>
   </si>
   <si>
+    <t>ONGC.NS</t>
+  </si>
+  <si>
     <t>infosys</t>
   </si>
   <si>
+    <t>INFY.NS</t>
+  </si>
+  <si>
     <t>hindustan unilever</t>
   </si>
   <si>
+    <t>HINDUNILVR.NS</t>
+  </si>
+  <si>
     <t>tata consumer products</t>
   </si>
   <si>
+    <t>TATACONSUM.NS</t>
+  </si>
+  <si>
     <t>bharti airtel</t>
   </si>
   <si>
+    <t>BHARTIARTL.NS</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Tele &amp; Media</t>
+  </si>
+  <si>
     <t>tech mahindra</t>
   </si>
   <si>
+    <t>TECHM.NS</t>
+  </si>
+  <si>
     <t>ultratech cement</t>
   </si>
   <si>
+    <t>ULTRACEMCO.NS</t>
+  </si>
+  <si>
     <t>ntpc</t>
   </si>
   <si>
+    <t>NTPC.NS</t>
+  </si>
+  <si>
     <t>bharat petroleum corporation</t>
   </si>
   <si>
+    <t>BPCL.NS</t>
+  </si>
+  <si>
     <t>hindalco industries</t>
   </si>
   <si>
+    <t>HINDALCO.NS</t>
+  </si>
+  <si>
     <t>tata consultancy services</t>
   </si>
   <si>
+    <t>TCS.NS</t>
+  </si>
+  <si>
     <t>adani ports &amp; special economic zone</t>
   </si>
   <si>
+    <t>ADANIPORTS.NS</t>
+  </si>
+  <si>
     <t>titan company</t>
   </si>
   <si>
-    <t>INDUSINDBK.NS</t>
-  </si>
-  <si>
-    <t>HDFCLIFE.NS</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS</t>
-  </si>
-  <si>
-    <t>POWERGRID.NS</t>
-  </si>
-  <si>
-    <t>EICHERMOT.NS</t>
-  </si>
-  <si>
-    <t>AXISBANK.NS</t>
-  </si>
-  <si>
-    <t>BEL.NS</t>
-  </si>
-  <si>
-    <t>M&amp;M.NS</t>
-  </si>
-  <si>
-    <t>ICICIBANK.NS</t>
-  </si>
-  <si>
-    <t>CIPLA.NS</t>
-  </si>
-  <si>
-    <t>MARUTI.NS</t>
-  </si>
-  <si>
-    <t>COALINDIA.NS</t>
-  </si>
-  <si>
-    <t>ITC.NS</t>
-  </si>
-  <si>
-    <t>TRENT.NS</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP.NS</t>
-  </si>
-  <si>
-    <t>SBIN.NS</t>
-  </si>
-  <si>
-    <t>BRITANNIA.NS</t>
-  </si>
-  <si>
-    <t>SUNPHARMA.NS</t>
-  </si>
-  <si>
-    <t>ASIANPAINT.NS</t>
-  </si>
-  <si>
-    <t>LT.NS</t>
-  </si>
-  <si>
-    <t>WIPRO.NS</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO.NS</t>
-  </si>
-  <si>
-    <t>GRASIM.NS</t>
-  </si>
-  <si>
-    <t>HDFCBANK.NS</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV.NS</t>
-  </si>
-  <si>
-    <t>SBILIFE.NS</t>
-  </si>
-  <si>
-    <t>ADANIENT.NS</t>
-  </si>
-  <si>
-    <t>NESTLEIND.NS</t>
-  </si>
-  <si>
-    <t>TATAMOTORS.NS</t>
-  </si>
-  <si>
-    <t>HCLTECH.NS</t>
-  </si>
-  <si>
-    <t>TATASTEEL.NS</t>
-  </si>
-  <si>
-    <t>SHRIRAMFIN.NS</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO.NS</t>
-  </si>
-  <si>
-    <t>JSWSTEEL.NS</t>
-  </si>
-  <si>
-    <t>ONGC.NS</t>
-  </si>
-  <si>
-    <t>INFY.NS</t>
-  </si>
-  <si>
-    <t>HINDUNILVR.NS</t>
-  </si>
-  <si>
-    <t>TATACONSUM.NS</t>
-  </si>
-  <si>
-    <t>BHARTIARTL.NS</t>
-  </si>
-  <si>
-    <t>TECHM.NS</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO.NS</t>
-  </si>
-  <si>
-    <t>NTPC.NS</t>
-  </si>
-  <si>
-    <t>BPCL.NS</t>
-  </si>
-  <si>
-    <t>HINDALCO.NS</t>
-  </si>
-  <si>
-    <t>TCS.NS</t>
-  </si>
-  <si>
-    <t>ADANIPORTS.NS</t>
-  </si>
-  <si>
     <t>TITAN.NS</t>
   </si>
   <si>
-    <t>Large Cap</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
+    <t>sector-from-api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +451,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -413,314 +459,342 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -730,81 +804,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+      <c r="N1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D2">
         <v>77881</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>532187</v>
       </c>
       <c r="G2">
-        <v>75131.74000000001</v>
+        <v>75131.740000000005</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>1.71091</v>
+        <v>1.7109099999999999</v>
       </c>
       <c r="J2">
         <v>7.99322</v>
@@ -813,30 +910,33 @@
         <v>1.18753</v>
       </c>
       <c r="L2">
-        <v>14.30529</v>
+        <v>14.305289999999999</v>
       </c>
       <c r="M2">
-        <v>120.6522</v>
+        <v>120.65219999999999</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="D3">
         <v>136665</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>540777</v>
@@ -845,42 +945,45 @@
         <v>134204.4</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>0.32074</v>
+        <v>0.32074000000000003</v>
       </c>
       <c r="J3">
-        <v>88.27401999999999</v>
+        <v>88.274019999999993</v>
       </c>
       <c r="K3">
-        <v>9.14489</v>
+        <v>9.1448900000000002</v>
       </c>
       <c r="L3">
-        <v>27.31751</v>
+        <v>27.317509999999999</v>
       </c>
       <c r="M3">
-        <v>7.0638</v>
+        <v>7.0637999999999996</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>2.277</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D4">
         <v>446166</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>500034</v>
@@ -889,16 +992,16 @@
         <v>428026.5</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>0.52034</v>
+        <v>0.52034000000000002</v>
       </c>
       <c r="J4">
         <v>23.63477</v>
       </c>
       <c r="K4">
-        <v>5.57494</v>
+        <v>5.5749399999999998</v>
       </c>
       <c r="L4">
         <v>15.42014</v>
@@ -907,15 +1010,18 @@
         <v>292.7276</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1.589</v>
@@ -924,51 +1030,54 @@
         <v>311384</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>532898</v>
       </c>
       <c r="G5">
-        <v>299153.9</v>
+        <v>299153.90000000002</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>3.65304</v>
+        <v>3.6530399999999998</v>
       </c>
       <c r="J5">
-        <v>19.17901</v>
+        <v>19.179010000000002</v>
       </c>
       <c r="K5">
         <v>3.43283</v>
       </c>
       <c r="L5">
-        <v>72.03964999999999</v>
+        <v>72.039649999999995</v>
       </c>
       <c r="M5">
         <v>16.77094</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="D6">
         <v>132555</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>505200</v>
@@ -977,42 +1086,45 @@
         <v>130814.6</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>1.06875</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="J6">
-        <v>32.69344</v>
+        <v>32.693440000000002</v>
       </c>
       <c r="K6">
-        <v>7.2405</v>
+        <v>7.2404999999999999</v>
       </c>
       <c r="L6">
-        <v>34.90144</v>
+        <v>34.901440000000001</v>
       </c>
       <c r="M6">
         <v>145.9605</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>1.818</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="D7">
         <v>356073</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>532215</v>
@@ -1021,16 +1133,16 @@
         <v>343200.6</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>0.09018</v>
+        <v>9.0179999999999996E-2</v>
       </c>
       <c r="J7">
         <v>13.1477</v>
       </c>
       <c r="K7">
-        <v>2.17974</v>
+        <v>2.1797399999999998</v>
       </c>
       <c r="L7">
         <v>1.16978</v>
@@ -1039,15 +1151,18 @@
         <v>84.34178</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1.179</v>
@@ -1056,7 +1171,7 @@
         <v>231026</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>500049</v>
@@ -1065,33 +1180,36 @@
         <v>218196.9</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>0.73702</v>
+        <v>0.73702000000000001</v>
       </c>
       <c r="J8">
-        <v>53.85404</v>
+        <v>53.854039999999998</v>
       </c>
       <c r="K8">
-        <v>13.36461</v>
+        <v>13.364610000000001</v>
       </c>
       <c r="L8">
-        <v>40.35994</v>
+        <v>40.359940000000002</v>
       </c>
       <c r="M8">
-        <v>5.54276</v>
+        <v>5.5427600000000004</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1.958</v>
@@ -1100,7 +1218,7 @@
         <v>383610</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>500520</v>
@@ -1109,42 +1227,45 @@
         <v>361361.6</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>0.69992</v>
+        <v>0.69991999999999999</v>
       </c>
       <c r="J9">
-        <v>31.07623</v>
+        <v>31.076229999999999</v>
       </c>
       <c r="K9">
-        <v>5.07725</v>
+        <v>5.0772500000000003</v>
       </c>
       <c r="L9">
         <v>23.28453</v>
       </c>
       <c r="M9">
-        <v>97.00824</v>
+        <v>97.008240000000001</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>4.847</v>
+        <v>4.8470000000000004</v>
       </c>
       <c r="D10">
         <v>949624</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>532174</v>
@@ -1153,42 +1274,45 @@
         <v>908296</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>0.77706</v>
+        <v>0.77705999999999997</v>
       </c>
       <c r="J10">
-        <v>20.50097</v>
+        <v>20.500969999999999</v>
       </c>
       <c r="K10">
-        <v>3.52811</v>
+        <v>3.5281099999999999</v>
       </c>
       <c r="L10">
         <v>15.8674</v>
       </c>
       <c r="M10">
-        <v>62.77265</v>
+        <v>62.772649999999999</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>0.597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D11">
         <v>116963</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>500087</v>
@@ -1197,7 +1321,7 @@
         <v>121671.1</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>0.8629</v>
@@ -1206,33 +1330,36 @@
         <v>28.02337</v>
       </c>
       <c r="K11">
-        <v>4.55448</v>
+        <v>4.5544799999999999</v>
       </c>
       <c r="L11">
         <v>25.46566</v>
       </c>
       <c r="M11">
-        <v>53.76048</v>
+        <v>53.760480000000001</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>1.808</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="D12">
         <v>354244</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>532500</v>
@@ -1241,42 +1368,45 @@
         <v>344439</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>1.141</v>
       </c>
       <c r="J12">
-        <v>25.3906</v>
+        <v>25.390599999999999</v>
       </c>
       <c r="K12">
-        <v>4.02213</v>
+        <v>4.0221299999999998</v>
       </c>
       <c r="L12">
-        <v>29.13658</v>
+        <v>29.136579999999999</v>
       </c>
       <c r="M12">
         <v>431.4726</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>1.291</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="D13">
         <v>252980</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>533278</v>
@@ -1285,42 +1415,45 @@
         <v>241548.1</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I13">
-        <v>6.6335</v>
+        <v>6.6334999999999997</v>
       </c>
       <c r="J13">
         <v>6.45594</v>
       </c>
       <c r="K13">
-        <v>2.91972</v>
+        <v>2.9197199999999999</v>
       </c>
       <c r="L13">
-        <v>42.01612</v>
+        <v>42.016120000000001</v>
       </c>
       <c r="M13">
-        <v>60.71149</v>
+        <v>60.711489999999998</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>3.002</v>
+        <v>3.0019999999999998</v>
       </c>
       <c r="D14">
         <v>588071</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>500875</v>
@@ -1329,16 +1462,16 @@
         <v>583733.9</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>2.94717</v>
+        <v>2.9471699999999998</v>
       </c>
       <c r="J14">
-        <v>28.54049</v>
+        <v>28.540489999999998</v>
       </c>
       <c r="K14">
-        <v>7.81772</v>
+        <v>7.8177199999999996</v>
       </c>
       <c r="L14">
         <v>83.89058</v>
@@ -1347,15 +1480,18 @@
         <v>16.34695</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>1.27</v>
@@ -1364,7 +1500,7 @@
         <v>248743</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>500251</v>
@@ -1373,42 +1509,45 @@
         <v>252111.7</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I15">
-        <v>0.04512</v>
+        <v>4.512E-2</v>
       </c>
       <c r="J15">
-        <v>285.4516</v>
+        <v>285.45159999999998</v>
       </c>
       <c r="K15">
-        <v>61.97832</v>
+        <v>61.978319999999997</v>
       </c>
       <c r="L15">
-        <v>7.65133</v>
+        <v>7.6513299999999997</v>
       </c>
       <c r="M15">
-        <v>24.84484</v>
+        <v>24.844840000000001</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C16">
-        <v>0.5329999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D16">
         <v>104390</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>508869</v>
@@ -1417,7 +1556,7 @@
         <v>104927.6</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>0.21925</v>
@@ -1429,30 +1568,33 @@
         <v>15.12928</v>
       </c>
       <c r="L16">
-        <v>25.60149</v>
+        <v>25.601489999999998</v>
       </c>
       <c r="M16">
-        <v>62.57581</v>
+        <v>62.575809999999997</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1">
+        <v>43</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>3.921</v>
+        <v>3.9209999999999998</v>
       </c>
       <c r="D17">
         <v>768142</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>500112</v>
@@ -1461,10 +1603,10 @@
         <v>743242.4</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I17">
-        <v>1.64505</v>
+        <v>1.6450499999999999</v>
       </c>
       <c r="J17">
         <v>10.32931</v>
@@ -1476,71 +1618,77 @@
         <v>18.2258</v>
       </c>
       <c r="M17">
-        <v>80.62494</v>
+        <v>80.624939999999995</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>0.596</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D18">
         <v>116674</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>500825</v>
       </c>
       <c r="G18">
-        <v>115273.6</v>
+        <v>115273.60000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>1.53581</v>
+        <v>1.5358099999999999</v>
       </c>
       <c r="J18">
-        <v>53.82578</v>
+        <v>53.825780000000002</v>
       </c>
       <c r="K18">
         <v>29.24596</v>
       </c>
       <c r="L18">
-        <v>82.73538000000001</v>
+        <v>82.735380000000006</v>
       </c>
       <c r="M18">
-        <v>88.91186</v>
+        <v>88.911860000000004</v>
       </c>
       <c r="N18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C19">
-        <v>2.217</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="D19">
         <v>434352</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>524715</v>
@@ -1549,33 +1697,36 @@
         <v>437470.8</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I19">
-        <v>0.74042</v>
+        <v>0.74041999999999997</v>
       </c>
       <c r="J19">
-        <v>43.68675</v>
+        <v>43.686750000000004</v>
       </c>
       <c r="K19">
-        <v>6.87126</v>
+        <v>6.8712600000000004</v>
       </c>
       <c r="L19">
-        <v>32.76917</v>
+        <v>32.769170000000003</v>
       </c>
       <c r="M19">
-        <v>41.73577</v>
+        <v>41.735770000000002</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>1.177</v>
@@ -1584,7 +1735,7 @@
         <v>230529</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>500820</v>
@@ -1593,33 +1744,36 @@
         <v>219720.2</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I20">
         <v>1.41371</v>
       </c>
       <c r="J20">
-        <v>40.29433</v>
+        <v>40.294330000000002</v>
       </c>
       <c r="K20">
-        <v>11.7337</v>
+        <v>11.733700000000001</v>
       </c>
       <c r="L20">
-        <v>58.49827</v>
+        <v>58.498269999999998</v>
       </c>
       <c r="M20">
         <v>56.87773</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
+        <v>66</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>2.722</v>
@@ -1628,7 +1782,7 @@
         <v>533172</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>500510</v>
@@ -1637,33 +1791,36 @@
         <v>511046.7</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>0.75343</v>
+        <v>0.75343000000000004</v>
       </c>
       <c r="J21">
-        <v>41.68692</v>
+        <v>41.686920000000001</v>
       </c>
       <c r="K21">
-        <v>5.9157</v>
+        <v>5.9157000000000002</v>
       </c>
       <c r="L21">
-        <v>35.93246</v>
+        <v>35.932459999999999</v>
       </c>
       <c r="M21">
-        <v>89.14906999999999</v>
+        <v>89.149069999999995</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1.651</v>
@@ -1672,7 +1829,7 @@
         <v>323527</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>507685</v>
@@ -1681,33 +1838,36 @@
         <v>327118.3</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I22">
-        <v>0.15987</v>
+        <v>0.15987000000000001</v>
       </c>
       <c r="J22">
-        <v>28.01945</v>
+        <v>28.019449999999999</v>
       </c>
       <c r="K22">
-        <v>4.35348</v>
+        <v>4.3534800000000002</v>
       </c>
       <c r="L22">
-        <v>4.72422</v>
+        <v>4.7242199999999999</v>
       </c>
       <c r="M22">
         <v>11.16189</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>1.282</v>
@@ -1716,7 +1876,7 @@
         <v>251185</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>532977</v>
@@ -1725,42 +1885,45 @@
         <v>250847.3</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>0.89061</v>
+        <v>0.89061000000000001</v>
       </c>
       <c r="J23">
-        <v>32.95242</v>
+        <v>32.952419999999996</v>
       </c>
       <c r="K23">
-        <v>8.658720000000001</v>
+        <v>8.6587200000000006</v>
       </c>
       <c r="L23">
-        <v>28.97471</v>
+        <v>28.974710000000002</v>
       </c>
       <c r="M23">
-        <v>272.5945</v>
+        <v>272.59449999999998</v>
       </c>
       <c r="N23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D24">
         <v>176741</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>500300</v>
@@ -1769,42 +1932,45 @@
         <v>170494.9</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I24">
-        <v>0.39385</v>
+        <v>0.39384999999999998</v>
       </c>
       <c r="J24">
-        <v>27.7951</v>
+        <v>27.795100000000001</v>
       </c>
       <c r="K24">
-        <v>1.94921</v>
+        <v>1.9492100000000001</v>
       </c>
       <c r="L24">
-        <v>11.80605</v>
+        <v>11.806050000000001</v>
       </c>
       <c r="M24">
-        <v>91.34883000000001</v>
+        <v>91.348830000000007</v>
       </c>
       <c r="N24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>7.277</v>
+        <v>7.2770000000000001</v>
       </c>
       <c r="D25">
         <v>1425620</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F25">
         <v>500180</v>
@@ -1813,13 +1979,13 @@
         <v>1371616</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>1.08726</v>
+        <v>1.0872599999999999</v>
       </c>
       <c r="J25">
-        <v>19.97693</v>
+        <v>19.976929999999999</v>
       </c>
       <c r="K25">
         <v>2.98536</v>
@@ -1828,27 +1994,30 @@
         <v>23.12443</v>
       </c>
       <c r="M25">
-        <v>89.77857</v>
+        <v>89.778570000000002</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>8.759</v>
+        <v>8.7590000000000003</v>
       </c>
       <c r="D26">
         <v>1715970</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>500325</v>
@@ -1857,33 +2026,36 @@
         <v>1665091</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I26">
         <v>0.40636</v>
       </c>
       <c r="J26">
-        <v>23.8482</v>
+        <v>23.848199999999999</v>
       </c>
       <c r="K26">
-        <v>2.09844</v>
+        <v>2.0984400000000001</v>
       </c>
       <c r="L26">
-        <v>8.74592</v>
+        <v>8.7459199999999999</v>
       </c>
       <c r="M26">
-        <v>51.59508</v>
+        <v>51.595080000000003</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1">
+        <v>48</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>1.363</v>
@@ -1892,7 +2064,7 @@
         <v>267050</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <v>532978</v>
@@ -1901,51 +2073,54 @@
         <v>253452.6</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I27">
-        <v>0.06290999999999999</v>
+        <v>6.2909999999999994E-2</v>
       </c>
       <c r="J27">
-        <v>22.15773</v>
+        <v>22.157730000000001</v>
       </c>
       <c r="K27">
-        <v>4.19612</v>
+        <v>4.1961199999999996</v>
       </c>
       <c r="L27">
-        <v>1.9582</v>
+        <v>1.9581999999999999</v>
       </c>
       <c r="M27">
-        <v>71.73793000000001</v>
+        <v>71.737930000000006</v>
       </c>
       <c r="N27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C28">
-        <v>0.7270000000000001</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="D28">
         <v>142471</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>540719</v>
       </c>
       <c r="G28">
-        <v>140883.7</v>
+        <v>140883.70000000001</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I28">
         <v>0.19205</v>
@@ -1954,7 +2129,7 @@
         <v>74.79974</v>
       </c>
       <c r="K28">
-        <v>9.44397</v>
+        <v>9.4439700000000002</v>
       </c>
       <c r="L28">
         <v>14.27684</v>
@@ -1963,15 +2138,18 @@
         <v>18.79552</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>1.48</v>
@@ -1989,42 +2167,45 @@
         <v>279236.7</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>0.05373</v>
+        <v>5.373E-2</v>
       </c>
       <c r="J29">
-        <v>75.84058</v>
+        <v>75.840580000000003</v>
       </c>
       <c r="K29">
-        <v>7.05818</v>
+        <v>7.0581800000000001</v>
       </c>
       <c r="L29">
-        <v>4.57471</v>
+        <v>4.5747099999999996</v>
       </c>
       <c r="M29">
-        <v>31.90047</v>
+        <v>31.900469999999999</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="1">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C30">
-        <v>1.104</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="D30">
         <v>216256</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F30">
         <v>500790</v>
@@ -2033,24 +2214,27 @@
         <v>208296.5</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>1.36549</v>
+        <v>1.3654900000000001</v>
       </c>
       <c r="K30">
-        <v>62.34761</v>
+        <v>62.347610000000003</v>
       </c>
       <c r="N30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="1">
+        <v>52</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>1.474</v>
@@ -2059,42 +2243,45 @@
         <v>288858</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>500570</v>
       </c>
       <c r="G31">
-        <v>273894.1</v>
+        <v>273894.09999999998</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I31">
         <v>0.4032</v>
       </c>
       <c r="J31">
-        <v>8.905200000000001</v>
+        <v>8.9052000000000007</v>
       </c>
       <c r="K31">
-        <v>3.3578</v>
+        <v>3.3578000000000001</v>
       </c>
       <c r="L31">
-        <v>7.35537</v>
+        <v>7.3553699999999997</v>
       </c>
       <c r="M31">
-        <v>83.55226</v>
+        <v>83.552260000000004</v>
       </c>
       <c r="N31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>2.706</v>
@@ -2103,7 +2290,7 @@
         <v>530182</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>532281</v>
@@ -2112,42 +2299,45 @@
         <v>523433.8</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I32">
-        <v>2.79178</v>
+        <v>2.7917800000000002</v>
       </c>
       <c r="J32">
         <v>33.43712</v>
       </c>
       <c r="K32">
-        <v>7.68924</v>
+        <v>7.6892399999999999</v>
       </c>
       <c r="L32">
-        <v>89.67010999999999</v>
+        <v>89.670109999999994</v>
       </c>
       <c r="M32">
-        <v>57.84739</v>
+        <v>57.847389999999997</v>
       </c>
       <c r="N32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1">
+        <v>71</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C33">
-        <v>0.9419999999999999</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="D33">
         <v>184631</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>500470</v>
@@ -2156,39 +2346,42 @@
         <v>178839.1</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I33">
-        <v>2.51291</v>
+        <v>2.5129100000000002</v>
       </c>
       <c r="J33">
-        <v>6080.645</v>
+        <v>6080.6450000000004</v>
       </c>
       <c r="K33">
         <v>1.94133</v>
       </c>
       <c r="M33">
-        <v>0.02356</v>
+        <v>2.3560000000000001E-2</v>
       </c>
       <c r="N33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="1">
+        <v>66</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C34">
-        <v>0.602</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D34">
         <v>117898</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F34">
         <v>511218</v>
@@ -2197,7 +2390,7 @@
         <v>110766.2</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <v>1.59568</v>
@@ -2206,68 +2399,71 @@
         <v>10.31934</v>
       </c>
       <c r="K34">
-        <v>2.26137</v>
+        <v>2.2613699999999999</v>
       </c>
       <c r="L34">
-        <v>22.94533</v>
+        <v>22.945329999999998</v>
       </c>
       <c r="M34">
         <v>285.43</v>
       </c>
       <c r="N34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C35">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D35">
         <v>90784.8</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>500182</v>
       </c>
       <c r="G35">
-        <v>88138.78999999999</v>
+        <v>88138.79</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35">
-        <v>2.60951</v>
+        <v>2.6095100000000002</v>
       </c>
       <c r="J35">
-        <v>22.8481</v>
+        <v>22.848099999999999</v>
       </c>
       <c r="K35">
-        <v>4.97796</v>
+        <v>4.9779600000000004</v>
       </c>
       <c r="L35">
-        <v>21.35531</v>
+        <v>21.355309999999999</v>
       </c>
       <c r="M35">
-        <v>192.8804</v>
+        <v>192.88040000000001</v>
       </c>
       <c r="N35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>1.236</v>
@@ -2276,7 +2472,7 @@
         <v>242186</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F36">
         <v>500228</v>
@@ -2285,33 +2481,36 @@
         <v>225892.6</v>
       </c>
       <c r="H36" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>0.78838</v>
+        <v>0.78837999999999997</v>
       </c>
       <c r="J36">
-        <v>26.60167</v>
+        <v>26.601669999999999</v>
       </c>
       <c r="K36">
-        <v>2.87108</v>
+        <v>2.8710800000000001</v>
       </c>
       <c r="L36">
         <v>20.25647</v>
       </c>
       <c r="M36">
-        <v>34.80796</v>
+        <v>34.807960000000001</v>
       </c>
       <c r="N36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="1">
+        <v>66</v>
+      </c>
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C37">
         <v>1.617</v>
@@ -2320,51 +2519,54 @@
         <v>316771</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F37">
         <v>500312</v>
       </c>
       <c r="G37">
-        <v>304254.1</v>
+        <v>304254.09999999998</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>5.16849</v>
+        <v>5.1684900000000003</v>
       </c>
       <c r="J37">
-        <v>5.87468</v>
+        <v>5.8746799999999997</v>
       </c>
       <c r="K37">
         <v>0.90264</v>
       </c>
       <c r="L37">
-        <v>31.30957</v>
+        <v>31.309570000000001</v>
       </c>
       <c r="M37">
-        <v>41.16822</v>
+        <v>41.168219999999998</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="1">
+        <v>48</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C38">
-        <v>4.196</v>
+        <v>4.1959999999999997</v>
       </c>
       <c r="D38">
         <v>822000</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F38">
         <v>500209</v>
@@ -2373,16 +2575,16 @@
         <v>806122.3</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>2.10667</v>
+        <v>2.1066699999999998</v>
       </c>
       <c r="J38">
-        <v>30.64587</v>
+        <v>30.645869999999999</v>
       </c>
       <c r="K38">
-        <v>9.14382</v>
+        <v>9.1438199999999998</v>
       </c>
       <c r="L38">
         <v>72.78237</v>
@@ -2391,112 +2593,121 @@
         <v>63.50611</v>
       </c>
       <c r="N38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="1">
+        <v>71</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C39">
-        <v>2.838</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="D39">
         <v>555902</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F39">
         <v>500696</v>
       </c>
       <c r="G39">
-        <v>554468.3</v>
+        <v>554468.30000000005</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>1.82215</v>
+        <v>1.8221499999999999</v>
       </c>
       <c r="J39">
-        <v>53.46834</v>
+        <v>53.468339999999998</v>
       </c>
       <c r="K39">
         <v>10.82565</v>
       </c>
       <c r="L39">
-        <v>96.02024</v>
+        <v>96.020240000000001</v>
       </c>
       <c r="M39">
-        <v>44.13546</v>
+        <v>44.135460000000002</v>
       </c>
       <c r="N39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="1">
+        <v>52</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>0.465</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D40">
         <v>91064.8</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>500800</v>
       </c>
       <c r="G40">
-        <v>89753.78999999999</v>
+        <v>89753.79</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>0.84388</v>
+        <v>0.84387999999999996</v>
       </c>
       <c r="J40">
-        <v>65.84258</v>
+        <v>65.842579999999998</v>
       </c>
       <c r="K40">
-        <v>5.4498</v>
+        <v>5.4497999999999998</v>
       </c>
       <c r="L40">
-        <v>68.24216</v>
+        <v>68.242159999999998</v>
       </c>
       <c r="M40">
         <v>13.7768</v>
       </c>
       <c r="N40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="1">
+        <v>52</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C41">
-        <v>5.083</v>
+        <v>5.0830000000000002</v>
       </c>
       <c r="D41">
         <v>995801</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F41">
         <v>532454</v>
@@ -2505,10 +2716,10 @@
         <v>957503.4</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>0.49991</v>
+        <v>0.49991000000000002</v>
       </c>
       <c r="J41">
         <v>110.8693</v>
@@ -2517,30 +2728,33 @@
         <v>11.02777</v>
       </c>
       <c r="L41">
-        <v>61.83742</v>
+        <v>61.837420000000002</v>
       </c>
       <c r="M41">
         <v>14.43411</v>
       </c>
       <c r="N41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="1">
+        <v>114</v>
+      </c>
+      <c r="O41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C42">
-        <v>0.8880000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D42">
         <v>173875</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F42">
         <v>532755</v>
@@ -2549,42 +2763,45 @@
         <v>171713.5</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I42">
         <v>2.45105</v>
       </c>
       <c r="J42">
-        <v>57.72098</v>
+        <v>57.720979999999997</v>
       </c>
       <c r="K42">
-        <v>5.80536</v>
+        <v>5.8053600000000003</v>
       </c>
       <c r="L42">
-        <v>165.6587</v>
+        <v>165.65870000000001</v>
       </c>
       <c r="M42">
-        <v>30.39363</v>
+        <v>30.393630000000002</v>
       </c>
       <c r="N42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
       <c r="C43">
-        <v>1.759</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="D43">
         <v>344602</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F43">
         <v>532538</v>
@@ -2593,33 +2810,36 @@
         <v>336357.7</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I43">
-        <v>0.59979</v>
+        <v>0.59979000000000005</v>
       </c>
       <c r="J43">
-        <v>47.69334</v>
+        <v>47.693339999999999</v>
       </c>
       <c r="K43">
-        <v>5.59423</v>
+        <v>5.5942299999999996</v>
       </c>
       <c r="L43">
         <v>28.84854</v>
       </c>
       <c r="M43">
-        <v>244.705</v>
+        <v>244.70500000000001</v>
       </c>
       <c r="N43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1">
+        <v>66</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>1.746</v>
@@ -2628,7 +2848,7 @@
         <v>342147</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F44">
         <v>532555</v>
@@ -2637,33 +2857,36 @@
         <v>327165.5</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I44">
-        <v>2.03764</v>
+        <v>2.0376400000000001</v>
       </c>
       <c r="J44">
         <v>15.61318</v>
       </c>
       <c r="K44">
-        <v>2.03576</v>
+        <v>2.0357599999999998</v>
       </c>
       <c r="L44">
-        <v>36.10878</v>
+        <v>36.108780000000003</v>
       </c>
       <c r="M44">
-        <v>21.60995</v>
+        <v>21.609950000000001</v>
       </c>
       <c r="N44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>0.66</v>
@@ -2672,7 +2895,7 @@
         <v>129353</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>500547</v>
@@ -2681,33 +2904,36 @@
         <v>127790.7</v>
       </c>
       <c r="H45" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I45">
-        <v>7.12952</v>
+        <v>7.1295200000000003</v>
       </c>
       <c r="J45">
-        <v>4.62757</v>
+        <v>4.6275700000000004</v>
       </c>
       <c r="K45">
         <v>1.68957</v>
       </c>
       <c r="L45">
-        <v>16.96064</v>
+        <v>16.960640000000001</v>
       </c>
       <c r="M45">
-        <v>63.65115</v>
+        <v>63.651150000000001</v>
       </c>
       <c r="N45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="1">
+        <v>48</v>
+      </c>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>0.749</v>
@@ -2716,51 +2942,54 @@
         <v>146778</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F46">
         <v>500440</v>
       </c>
       <c r="G46">
-        <v>140721.3</v>
+        <v>140721.29999999999</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I46">
-        <v>0.55613</v>
+        <v>0.55613000000000001</v>
       </c>
       <c r="J46">
-        <v>13.31703</v>
+        <v>13.317030000000001</v>
       </c>
       <c r="K46">
         <v>1.3263</v>
       </c>
       <c r="L46">
-        <v>7.6514</v>
+        <v>7.6513999999999998</v>
       </c>
       <c r="M46">
         <v>47.25902</v>
       </c>
       <c r="N46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="1">
+        <v>66</v>
+      </c>
+      <c r="O46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C47">
-        <v>8.154999999999999</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="D47">
         <v>1597710</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F47">
         <v>532540</v>
@@ -2769,7 +2998,7 @@
         <v>1545611</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I47">
         <v>1.3343</v>
@@ -2778,7 +3007,7 @@
         <v>33.42418</v>
       </c>
       <c r="K47">
-        <v>17.08065</v>
+        <v>17.080649999999999</v>
       </c>
       <c r="L47">
         <v>103.348</v>
@@ -2787,15 +3016,18 @@
         <v>127.8087</v>
       </c>
       <c r="N47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="1">
+        <v>71</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C48">
         <v>1.37</v>
@@ -2804,7 +3036,7 @@
         <v>268473</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F48">
         <v>532921</v>
@@ -2813,42 +3045,45 @@
         <v>260296.8</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I48">
-        <v>0.49793</v>
+        <v>0.49792999999999998</v>
       </c>
       <c r="J48">
-        <v>29.27363</v>
+        <v>29.273630000000001</v>
       </c>
       <c r="K48">
-        <v>4.9319</v>
+        <v>4.9318999999999997</v>
       </c>
       <c r="L48">
         <v>15.13087</v>
       </c>
       <c r="M48">
-        <v>41.16333</v>
+        <v>41.163330000000002</v>
       </c>
       <c r="N48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="1">
+        <v>35</v>
+      </c>
+      <c r="O48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C49">
-        <v>1.558</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="D49">
         <v>305181</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F49">
         <v>500114</v>
@@ -2857,28 +3092,36 @@
         <v>297767.8</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I49">
-        <v>0.32769</v>
+        <v>0.32768999999999998</v>
       </c>
       <c r="J49">
-        <v>85.12174</v>
+        <v>85.121740000000003</v>
       </c>
       <c r="K49">
-        <v>31.80663</v>
+        <v>31.806629999999998</v>
       </c>
       <c r="L49">
         <v>27.94622</v>
       </c>
       <c r="M49">
-        <v>39.43587</v>
+        <v>39.435870000000001</v>
       </c>
       <c r="N49" t="s">
-        <v>112</v>
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>